--- a/data/news_and_keyword/kosdaq/CMG제약.xlsx
+++ b/data/news_and_keyword/kosdaq/CMG제약.xlsx
@@ -759,12 +759,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>상승 종목 7위 등극.... 금일 주가 3800원, 전 영업일 대비...</t>
+          <t>' 13일 거래량 상위 ' 5위 종목 올라...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['상승', '종목', '7위', '등극', '금일']</t>
+          <t>['13일', '거래량', '상위', '5위', '종목']</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -785,12 +785,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>' 13일 거래량 상위 ' 5위 종목 올라...</t>
+          <t>상승 종목 7위 등극.... 금일 주가 3800원, 전 영업일 대비...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['13일', '거래량', '상위', '5위', '종목']</t>
+          <t>['상승', '종목', '7위', '등극', '금일']</t>
         </is>
       </c>
       <c r="D14" t="n">
